--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/145.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/145.xlsx
@@ -479,13 +479,13 @@
         <v>0.2832410924148859</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.28476913293362</v>
+        <v>-11.27860265829517</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5937201277303434</v>
+        <v>0.5701016134038696</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.230914483525167</v>
+        <v>-5.231700021695671</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>1.083003264955599</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.48036813738901</v>
+        <v>-11.47570727757735</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6661074701422468</v>
+        <v>0.6397526645218522</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.113371788612151</v>
+        <v>-5.114301342113913</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>1.862735324573274</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.027390734722</v>
+        <v>-12.02364633610927</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6813600029528577</v>
+        <v>0.6564977198564199</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.809473255050005</v>
+        <v>-4.809604178078422</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>2.523684964506016</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.71587566425985</v>
+        <v>-12.71019360482654</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6927633987280011</v>
+        <v>0.6681891462940812</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.89461250042975</v>
+        <v>-4.896851284215685</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>3.092818910312129</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.31905114848101</v>
+        <v>-13.31173255119249</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7265677246653378</v>
+        <v>0.7035383639667416</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.192079529942728</v>
+        <v>-4.200065834676182</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>3.564327533904789</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.60146521307989</v>
+        <v>-13.5983623373064</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8379963141512684</v>
+        <v>0.8129507388150464</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.206769093731145</v>
+        <v>-4.214925598401541</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>3.962558526885057</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.17941182972504</v>
+        <v>-14.17744798429878</v>
       </c>
       <c r="F8" t="n">
-        <v>0.920504006659826</v>
+        <v>0.8986005840056184</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.791795462859796</v>
+        <v>-3.800868428729112</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>4.310338831101201</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.97199365915746</v>
+        <v>-14.96731970704296</v>
       </c>
       <c r="F9" t="n">
-        <v>1.142222155284457</v>
+        <v>1.119729579002372</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.423836291493085</v>
+        <v>-3.437871240139415</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>4.633669024726684</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.5691074071629</v>
+        <v>-15.56533682394448</v>
       </c>
       <c r="F10" t="n">
-        <v>1.186474138889491</v>
+        <v>1.163523332007945</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.72529647337279</v>
+        <v>-2.740483544669193</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>4.955711414551506</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.17140570709367</v>
+        <v>-16.16737327781841</v>
       </c>
       <c r="F11" t="n">
-        <v>1.132834974146939</v>
+        <v>1.110028182596653</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.282108929877521</v>
+        <v>-2.300699999912772</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>5.300373190408264</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.64649919261422</v>
+        <v>-16.64161576365425</v>
       </c>
       <c r="F12" t="n">
-        <v>1.1627247015346</v>
+        <v>1.140467786703666</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.861453239572863</v>
+        <v>-1.877543679765344</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>5.671407834008512</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.44488091220552</v>
+        <v>-17.43948688343472</v>
       </c>
       <c r="F13" t="n">
-        <v>1.381916035710778</v>
+        <v>1.357642906242218</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.066881380108508</v>
+        <v>-1.086113972983003</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>6.071160446459722</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.25841042618469</v>
+        <v>-18.25275455135706</v>
       </c>
       <c r="F14" t="n">
-        <v>1.586836759789474</v>
+        <v>1.562720737955015</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.8663858543903147</v>
+        <v>-0.880512449156537</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>6.490683576853065</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.09871369947519</v>
+        <v>-19.09305782464757</v>
       </c>
       <c r="F15" t="n">
-        <v>1.63724212573012</v>
+        <v>1.613911642066164</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4338554454082105</v>
+        <v>-0.44659425607321</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>6.903932754376557</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.09175177771728</v>
+        <v>-20.08432844200602</v>
       </c>
       <c r="F16" t="n">
-        <v>1.962166897656077</v>
+        <v>1.936427430269244</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1331329137584203</v>
+        <v>0.1203286415792122</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>7.288997141362965</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.80601545155048</v>
+        <v>-20.79817316214829</v>
       </c>
       <c r="F17" t="n">
-        <v>2.026397735397585</v>
+        <v>2.002124605929025</v>
       </c>
       <c r="G17" t="n">
-        <v>0.23628716784838</v>
+        <v>0.2250146951016539</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>7.615024073287307</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.71665057570674</v>
+        <v>-21.70747287141469</v>
       </c>
       <c r="F18" t="n">
-        <v>2.146401783244846</v>
+        <v>2.122442869044488</v>
       </c>
       <c r="G18" t="n">
-        <v>0.794333484174112</v>
+        <v>0.7832704882728534</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>7.847254019802606</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.72263694145929</v>
+        <v>-22.71103716114152</v>
       </c>
       <c r="F19" t="n">
-        <v>2.244777346797576</v>
+        <v>2.221420678527937</v>
       </c>
       <c r="G19" t="n">
-        <v>1.015776694439067</v>
+        <v>1.00540759058842</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>7.96375727544499</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.08127439320269</v>
+        <v>-23.07111476619751</v>
       </c>
       <c r="F20" t="n">
-        <v>2.545847942945909</v>
+        <v>2.522229428619435</v>
       </c>
       <c r="G20" t="n">
-        <v>1.616137333549257</v>
+        <v>1.6035687228212</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>7.942007852685458</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.03468207074286</v>
+        <v>-24.022676429037</v>
       </c>
       <c r="F21" t="n">
-        <v>2.673366972624321</v>
+        <v>2.652131257415041</v>
       </c>
       <c r="G21" t="n">
-        <v>1.725562800700404</v>
+        <v>1.714879481581555</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>7.767975541295026</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.37797534355576</v>
+        <v>-24.36418914866343</v>
       </c>
       <c r="F22" t="n">
-        <v>2.754486881031656</v>
+        <v>2.733696304118995</v>
       </c>
       <c r="G22" t="n">
-        <v>1.994976208577443</v>
+        <v>1.983009843780105</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>7.438350492267508</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.91352908359941</v>
+        <v>-24.90158890340776</v>
       </c>
       <c r="F23" t="n">
-        <v>2.693136349915327</v>
+        <v>2.673314603412954</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5365262233226</v>
+        <v>2.523905243383176</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>6.951471168141306</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.44583593253831</v>
+        <v>-25.43245559903407</v>
       </c>
       <c r="F24" t="n">
-        <v>2.577583685034253</v>
+        <v>2.558992614999002</v>
       </c>
       <c r="G24" t="n">
-        <v>2.331710237666637</v>
+        <v>2.31906307312153</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>6.318116170731368</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.59058443275643</v>
+        <v>-25.57766232985165</v>
       </c>
       <c r="F25" t="n">
-        <v>2.702143854270435</v>
+        <v>2.683997922531802</v>
       </c>
       <c r="G25" t="n">
-        <v>2.241268609635994</v>
+        <v>2.230454367488728</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>5.553718218104541</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.66907278829258</v>
+        <v>-25.65478908589226</v>
       </c>
       <c r="F26" t="n">
-        <v>2.86715923928755</v>
+        <v>2.84728512357381</v>
       </c>
       <c r="G26" t="n">
-        <v>2.24420128547254</v>
+        <v>2.233334674113908</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>4.674824620850876</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.42518937095691</v>
+        <v>-25.41114133000774</v>
       </c>
       <c r="F27" t="n">
-        <v>2.567738273297275</v>
+        <v>2.549775633798427</v>
       </c>
       <c r="G27" t="n">
-        <v>1.959548437087732</v>
+        <v>1.94951973311097</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.710518721817658</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.51930993608608</v>
+        <v>-25.50456800308629</v>
       </c>
       <c r="F28" t="n">
-        <v>2.83424518994345</v>
+        <v>2.815680304513883</v>
       </c>
       <c r="G28" t="n">
-        <v>1.911630608687015</v>
+        <v>1.899638059283993</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.688715619746006</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.73173254969308</v>
+        <v>-25.71422814079369</v>
       </c>
       <c r="F29" t="n">
-        <v>2.666794636597774</v>
+        <v>2.650193596594466</v>
       </c>
       <c r="G29" t="n">
-        <v>1.813228860528602</v>
+        <v>1.7981988968663</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.637301687219525</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.38860947681713</v>
+        <v>-25.3736973438804</v>
       </c>
       <c r="F30" t="n">
-        <v>2.636760893878855</v>
+        <v>2.61966234636756</v>
       </c>
       <c r="G30" t="n">
-        <v>1.942345151153704</v>
+        <v>1.92388500414687</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.5945335065483648</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.62230389918806</v>
+        <v>-24.61053391893335</v>
       </c>
       <c r="F31" t="n">
-        <v>2.549644710770009</v>
+        <v>2.533253147612168</v>
       </c>
       <c r="G31" t="n">
-        <v>1.412682947388834</v>
+        <v>1.393044493126245</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.4061743641899705</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.74579049959122</v>
+        <v>-24.73001427466694</v>
       </c>
       <c r="F32" t="n">
-        <v>2.529953887296053</v>
+        <v>2.512986262813176</v>
       </c>
       <c r="G32" t="n">
-        <v>1.516007401415736</v>
+        <v>1.492310333272212</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.332410197385864</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.17623604906761</v>
+        <v>-24.1620832696957</v>
       </c>
       <c r="F33" t="n">
-        <v>2.584051282638065</v>
+        <v>2.566795627492671</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7558944830308042</v>
+        <v>0.7349729830897259</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.143954223618681</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.53032728837105</v>
+        <v>-23.51982726149199</v>
       </c>
       <c r="F34" t="n">
-        <v>2.560013814620656</v>
+        <v>2.542993820926413</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6877228621339365</v>
+        <v>0.6666835314672828</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.809730587396862</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.89726207676223</v>
+        <v>-22.88826766470996</v>
       </c>
       <c r="F35" t="n">
-        <v>2.43527035314469</v>
+        <v>2.418014697999296</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7407466886429271</v>
+        <v>0.7178744355784317</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.307057973002377</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.0925960518069</v>
+        <v>-22.08436099331946</v>
       </c>
       <c r="F36" t="n">
-        <v>2.291176468068653</v>
+        <v>2.274811089516496</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7552267755858761</v>
+        <v>0.7304954155178556</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.612972999887535</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.14720086360586</v>
+        <v>-21.14171518871518</v>
       </c>
       <c r="F37" t="n">
-        <v>2.332207745174623</v>
+        <v>2.316811197032753</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6961804897696916</v>
+        <v>0.6692758074299445</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.720220895623158</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.01605526604029</v>
+        <v>-21.00933891468249</v>
       </c>
       <c r="F38" t="n">
-        <v>2.160331993468443</v>
+        <v>2.145302029806142</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4015774912251716</v>
+        <v>0.3776185770248129</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.635506844060203</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.16356305880414</v>
+        <v>-20.15829995306177</v>
       </c>
       <c r="F39" t="n">
-        <v>2.400942335093684</v>
+        <v>2.385781448402966</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2384081209087396</v>
+        <v>0.2130745149099997</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.37008754480512</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.64509477396895</v>
+        <v>-19.64048628336866</v>
       </c>
       <c r="F40" t="n">
-        <v>2.238100272348296</v>
+        <v>2.220818432597218</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.08070366855549156</v>
+        <v>-0.1041912598535481</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.947103544731784</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.69704184829104</v>
+        <v>-18.6956802487955</v>
       </c>
       <c r="F41" t="n">
-        <v>2.457239237313107</v>
+        <v>2.442183089045122</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.1454189215021435</v>
+        <v>-0.1709489120435093</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.398190383848956</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.42387094949843</v>
+        <v>-18.41767829025429</v>
       </c>
       <c r="F42" t="n">
-        <v>2.468079664066056</v>
+        <v>2.452997331192388</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.3928634452107662</v>
+        <v>-0.4159058982122041</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.754270805069542</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.50892845770724</v>
+        <v>-17.50452944395242</v>
       </c>
       <c r="F43" t="n">
-        <v>2.816649134924171</v>
+        <v>2.799602956624244</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.3961627055268812</v>
+        <v>-0.4160499135434631</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.048590868512826</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.05703453282223</v>
+        <v>-17.05509687200165</v>
       </c>
       <c r="F44" t="n">
-        <v>2.75338712759295</v>
+        <v>2.734979349797483</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.7246223992201047</v>
+        <v>-0.7430825462269386</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.3175800525440177</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.33060810964905</v>
+        <v>-16.32813366441197</v>
       </c>
       <c r="F45" t="n">
-        <v>2.702903207835255</v>
+        <v>2.685987952563745</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.7694242595444913</v>
+        <v>-0.7890758061099222</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4074984876798427</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.85530514728303</v>
+        <v>-15.85467671674663</v>
       </c>
       <c r="F46" t="n">
-        <v>2.863650502125967</v>
+        <v>2.846892354488558</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.9298704308698443</v>
+        <v>-0.9510537768677572</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.099560895435931</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.12582821754774</v>
+        <v>-15.12798844751662</v>
       </c>
       <c r="F47" t="n">
-        <v>2.839639218714242</v>
+        <v>2.822828701865466</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.263043353586089</v>
+        <v>-1.283493530624865</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.732556777895908</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.47629288896402</v>
+        <v>-14.47689513489474</v>
       </c>
       <c r="F48" t="n">
-        <v>2.70484086865583</v>
+        <v>2.68860641313209</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.300513524319109</v>
+        <v>-1.321775424134072</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>2.289304128589702</v>
       </c>
       <c r="E49" t="n">
-        <v>-13.87106191319671</v>
+        <v>-13.87326142007412</v>
       </c>
       <c r="F49" t="n">
-        <v>3.09645783125754</v>
+        <v>3.077971499645023</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.488924854514389</v>
+        <v>-1.51107703092259</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>2.758913091285984</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.2752443031726</v>
+        <v>-13.27787585604379</v>
       </c>
       <c r="F50" t="n">
-        <v>3.151000364896171</v>
+        <v>3.133299571454157</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.44979196132047</v>
+        <v>-1.474078183091872</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>3.131258517262794</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.41874585126688</v>
+        <v>-12.42173089631479</v>
       </c>
       <c r="F51" t="n">
-        <v>3.133823263567827</v>
+        <v>3.117038931324734</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.461575033878023</v>
+        <v>-1.486843178362555</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>3.402973875468756</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.38983804659235</v>
+        <v>-12.38752070898936</v>
       </c>
       <c r="F52" t="n">
-        <v>3.094912939522217</v>
+        <v>3.078364268730275</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.55992441282507</v>
+        <v>-1.584367742230572</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>3.574177609735822</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.59334161861026</v>
+        <v>-11.59441518744328</v>
       </c>
       <c r="F53" t="n">
-        <v>3.368594438125658</v>
+        <v>3.349820075850623</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.704005205598265</v>
+        <v>-1.727911750587257</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>3.644934460070608</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.35462966089707</v>
+        <v>-11.35542829137041</v>
       </c>
       <c r="F54" t="n">
-        <v>3.027749425944162</v>
+        <v>3.009708232628264</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.772896903151428</v>
+        <v>-1.797994847699016</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>3.620419425562965</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.77461446040292</v>
+        <v>-10.77684015188601</v>
       </c>
       <c r="F55" t="n">
-        <v>2.908714208507189</v>
+        <v>2.889756553992369</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.164369850421879</v>
+        <v>-2.18880008752454</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>3.508275399453013</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.22295718786395</v>
+        <v>-10.22623026357438</v>
       </c>
       <c r="F56" t="n">
-        <v>3.126989081484445</v>
+        <v>3.10805761157531</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.436990872495141</v>
+        <v>-2.459706017925535</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>3.31860205829642</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.621955025914515</v>
+        <v>-9.622465625725342</v>
       </c>
       <c r="F57" t="n">
-        <v>3.145946735999265</v>
+        <v>3.126177358708258</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.92000520123494</v>
+        <v>-2.939028317263968</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>3.063676077683538</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.48713049125042</v>
+        <v>-9.487156675856104</v>
       </c>
       <c r="F58" t="n">
-        <v>3.106093766149051</v>
+        <v>3.085250820025023</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.74607395798261</v>
+        <v>-2.770189979817069</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>2.755771828416735</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.887935067093142</v>
+        <v>-8.889767989490984</v>
       </c>
       <c r="F59" t="n">
-        <v>3.209837173866888</v>
+        <v>3.188627643263292</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.112854822093566</v>
+        <v>-3.133514475977809</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>2.410221088785928</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.772762078994479</v>
+        <v>-8.775446001077032</v>
       </c>
       <c r="F60" t="n">
-        <v>3.008556109978191</v>
+        <v>2.987817902276897</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.829786142352606</v>
+        <v>-2.853666502735915</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>2.041417521154991</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.332769057392591</v>
+        <v>-8.334588887487591</v>
       </c>
       <c r="F61" t="n">
-        <v>3.072341809423081</v>
+        <v>3.051315571059269</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.291171986797874</v>
+        <v>-3.313847855319744</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>1.661861515743173</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.958158996182283</v>
+        <v>-7.960607256813685</v>
       </c>
       <c r="F62" t="n">
-        <v>2.884807663518197</v>
+        <v>2.86639988572273</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.407968420448913</v>
+        <v>-3.429374335595135</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>1.288078043692196</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.768333697280096</v>
+        <v>-7.769944050529629</v>
       </c>
       <c r="F63" t="n">
-        <v>3.168413127675667</v>
+        <v>3.145999105210632</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.388238320066431</v>
+        <v>-3.409866804360963</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.9323907390659596</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.501250719308884</v>
+        <v>-7.503620426123237</v>
       </c>
       <c r="F64" t="n">
-        <v>3.026440195659989</v>
+        <v>3.003581034898335</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.717549013444367</v>
+        <v>-3.736860160135913</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.6050487901446757</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.216362209472925</v>
+        <v>-7.2182998702935</v>
       </c>
       <c r="F65" t="n">
-        <v>3.124501543944517</v>
+        <v>3.101066321857828</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.753736138498898</v>
+        <v>-3.774958761405336</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.3189120019942089</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.001085473846423</v>
+        <v>-7.003573011386352</v>
       </c>
       <c r="F66" t="n">
-        <v>2.974620861012438</v>
+        <v>2.95097616208028</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.808160841411953</v>
+        <v>-3.82686974217278</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.08026175133676693</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.096227238597247</v>
+        <v>-7.096371253928506</v>
       </c>
       <c r="F67" t="n">
-        <v>2.972499907952078</v>
+        <v>2.950242993121144</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.694729129591239</v>
+        <v>-3.711408723411598</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.107618534643486</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.787026322384202</v>
+        <v>-6.788060614308699</v>
       </c>
       <c r="F68" t="n">
-        <v>2.939612043213662</v>
+        <v>2.916517221000857</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.669919215706168</v>
+        <v>-3.687633101451024</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2420252623463294</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.960041104437613</v>
+        <v>-6.958614043427864</v>
       </c>
       <c r="F69" t="n">
-        <v>2.700808439380578</v>
+        <v>2.67912758587468</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.712089523159368</v>
+        <v>-3.729803408904223</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3268611778261122</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.711693211832911</v>
+        <v>-6.711837227164169</v>
       </c>
       <c r="F70" t="n">
-        <v>2.763756231443597</v>
+        <v>2.741604055035397</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.518519825644448</v>
+        <v>-3.534099666026102</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.367454487074069</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.629591380712446</v>
+        <v>-6.628949857873202</v>
       </c>
       <c r="F71" t="n">
-        <v>2.672869465116335</v>
+        <v>2.651424273061588</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.511685643561067</v>
+        <v>-3.525223084699411</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3696407442157127</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.800629225036756</v>
+        <v>-6.797892933742835</v>
       </c>
       <c r="F72" t="n">
-        <v>2.818167842053811</v>
+        <v>2.795230127475107</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.383093045049633</v>
+        <v>-3.397821885746575</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3426632239471217</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.946726232447577</v>
+        <v>-6.943217495285994</v>
       </c>
       <c r="F73" t="n">
-        <v>2.575803131847778</v>
+        <v>2.555745723894254</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.30076864478086</v>
+        <v>-3.314541747370356</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2949207752060953</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.219255608400947</v>
+        <v>-7.21534100985127</v>
       </c>
       <c r="F74" t="n">
-        <v>2.708585267268564</v>
+        <v>2.688056536412737</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.268692502818631</v>
+        <v>-3.281601513420573</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2344502112993917</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.388486714933098</v>
+        <v>-7.383694932093026</v>
       </c>
       <c r="F75" t="n">
-        <v>2.262687617085057</v>
+        <v>2.243625224147504</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.004921877466376</v>
+        <v>-3.017202457531915</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1689871147477343</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.825612522212648</v>
+        <v>-7.821357523789087</v>
       </c>
       <c r="F76" t="n">
-        <v>2.509765556314112</v>
+        <v>2.488896425584401</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.930256474360012</v>
+        <v>-2.942445408305659</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1041443030316582</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.147617710604901</v>
+        <v>-8.143964958112059</v>
       </c>
       <c r="F77" t="n">
-        <v>2.359256442845629</v>
+        <v>2.339172850286421</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.802004275722464</v>
+        <v>-2.813617148343075</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.04449469811907052</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.50069093364057</v>
+        <v>-8.497784442409706</v>
       </c>
       <c r="F78" t="n">
-        <v>2.254622758534554</v>
+        <v>2.236424457584555</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.636805598465564</v>
+        <v>-2.648012609698081</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.006449363826766485</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.9630063315876</v>
+        <v>-8.959785625088536</v>
       </c>
       <c r="F79" t="n">
-        <v>2.365828778872175</v>
+        <v>2.343283833378723</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.352807365222842</v>
+        <v>-2.362508761628561</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.04568018103420034</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.361837153055101</v>
+        <v>-9.360554107376613</v>
       </c>
       <c r="F80" t="n">
-        <v>2.077850485565569</v>
+        <v>2.057217016287008</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.804252968457362</v>
+        <v>-1.814334041645491</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.06889850462012582</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.00244353110076</v>
+        <v>-10.00384440750482</v>
       </c>
       <c r="F81" t="n">
-        <v>2.221499232344987</v>
+        <v>2.200499178586858</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.907289391821746</v>
+        <v>-1.91589103478876</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.07245873109539541</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.65868211873943</v>
+        <v>-10.66135294851915</v>
       </c>
       <c r="F82" t="n">
-        <v>2.200708655432326</v>
+        <v>2.178923063503694</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.682415998212259</v>
+        <v>-1.69144968717305</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.05185110601985763</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.25838814270754</v>
+        <v>-11.26365124844991</v>
       </c>
       <c r="F83" t="n">
-        <v>1.885524556820613</v>
+        <v>1.866200317826225</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.281123823810513</v>
+        <v>-1.290380081919613</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.0006176553966453052</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.14560113707995</v>
+        <v>-12.1521734731065</v>
       </c>
       <c r="F84" t="n">
-        <v>1.942135674308236</v>
+        <v>1.921633128058093</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.133089155579116</v>
+        <v>-1.141978829208648</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.085294707623758</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.77884964092856</v>
+        <v>-12.78713706862737</v>
       </c>
       <c r="F85" t="n">
-        <v>1.863843703314714</v>
+        <v>1.842922203373636</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.8307486060551363</v>
+        <v>-0.8391014952681575</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.211164522940015</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.57429868468331</v>
+        <v>-13.58731243370798</v>
       </c>
       <c r="F86" t="n">
-        <v>1.827996978134069</v>
+        <v>1.807415878066875</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.6233272521336702</v>
+        <v>-0.6307767724506124</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3834892936083021</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.39899593298647</v>
+        <v>-14.41432701961413</v>
       </c>
       <c r="F87" t="n">
-        <v>1.843498264698672</v>
+        <v>1.821503195924572</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2319590432859528</v>
+        <v>-0.2398929788080388</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.6037409552184895</v>
       </c>
       <c r="E88" t="n">
-        <v>-15.5944279208588</v>
+        <v>-15.60944479221826</v>
       </c>
       <c r="F88" t="n">
-        <v>1.866278871643275</v>
+        <v>1.843681556938456</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04541448471885565</v>
+        <v>0.0375067338024531</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.8754611984690489</v>
       </c>
       <c r="E89" t="n">
-        <v>-16.53483494167714</v>
+        <v>-16.55582190313243</v>
       </c>
       <c r="F89" t="n">
-        <v>1.608543797901056</v>
+        <v>1.587831774805446</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2297541087303587</v>
+        <v>0.2239149416629489</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.201828893363133</v>
       </c>
       <c r="E90" t="n">
-        <v>-17.93626122246118</v>
+        <v>-17.95803372208697</v>
       </c>
       <c r="F90" t="n">
-        <v>1.568952674107676</v>
+        <v>1.546250620980123</v>
       </c>
       <c r="G90" t="n">
-        <v>0.691336337718253</v>
+        <v>0.6834154944990087</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.57768494006604</v>
       </c>
       <c r="E91" t="n">
-        <v>-19.0873888575171</v>
+        <v>-19.11359964780624</v>
       </c>
       <c r="F91" t="n">
-        <v>1.260511111459452</v>
+        <v>1.239602703821216</v>
       </c>
       <c r="G91" t="n">
-        <v>0.6632009789113836</v>
+        <v>0.6528580596664201</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.001896038912069</v>
       </c>
       <c r="E92" t="n">
-        <v>-20.37014650534374</v>
+        <v>-20.40070394017633</v>
       </c>
       <c r="F92" t="n">
-        <v>1.052448234698741</v>
+        <v>1.032993072675936</v>
       </c>
       <c r="G92" t="n">
-        <v>1.15968728727532</v>
+        <v>1.145966553897191</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.470184993558599</v>
       </c>
       <c r="E93" t="n">
-        <v>-21.96364996111874</v>
+        <v>-21.99783396383849</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9132115939769846</v>
+        <v>0.8927483246353668</v>
       </c>
       <c r="G93" t="n">
-        <v>1.15832568777978</v>
+        <v>1.144316923739133</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.967932750048517</v>
       </c>
       <c r="E94" t="n">
-        <v>-23.59763481728037</v>
+        <v>-23.63568104933842</v>
       </c>
       <c r="F94" t="n">
-        <v>1.017020463209031</v>
+        <v>0.9961120555707941</v>
       </c>
       <c r="G94" t="n">
-        <v>1.32004181248078</v>
+        <v>1.302903988060961</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.487418300997855</v>
       </c>
       <c r="E95" t="n">
-        <v>-25.26962662859152</v>
+        <v>-25.31487362721252</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2961844533492768</v>
+        <v>0.2765067221781625</v>
       </c>
       <c r="G95" t="n">
-        <v>1.295100975567292</v>
+        <v>1.27611713644679</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.015477898179094</v>
       </c>
       <c r="E96" t="n">
-        <v>-27.03789923500073</v>
+        <v>-27.08338189507288</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4601393618362123</v>
+        <v>0.4359186015790191</v>
       </c>
       <c r="G96" t="n">
-        <v>1.005289759862844</v>
+        <v>0.9850228750638521</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.530711872711583</v>
       </c>
       <c r="E97" t="n">
-        <v>-28.95191535664403</v>
+        <v>-29.00141735368859</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1643765760169629</v>
+        <v>-0.1841197687022858</v>
       </c>
       <c r="G97" t="n">
-        <v>1.18032075655388</v>
+        <v>1.157356857369492</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.021264709757929</v>
       </c>
       <c r="E98" t="n">
-        <v>-31.18084063853937</v>
+        <v>-31.23267306548976</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4381759053459801</v>
+        <v>-0.4618467888838209</v>
       </c>
       <c r="G98" t="n">
-        <v>1.051780527253813</v>
+        <v>1.026970613368742</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.468651523041595</v>
       </c>
       <c r="E99" t="n">
-        <v>-33.36090544622938</v>
+        <v>-33.41758202523121</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4099619927220605</v>
+        <v>-0.4335805070485343</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6716062373357717</v>
+        <v>0.6457096623148376</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.853168566137277</v>
       </c>
       <c r="E100" t="n">
-        <v>-35.33289428485585</v>
+        <v>-35.39567187698192</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.4813543201179927</v>
+        <v>-0.50499901905015</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4781020013350605</v>
+        <v>0.4514984419606731</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.159664364128895</v>
       </c>
       <c r="E101" t="n">
-        <v>-37.15534284042411</v>
+        <v>-37.22500698384493</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.8355142042895246</v>
+        <v>-0.8614631485218256</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.08734146609624668</v>
+        <v>-0.1153066249661736</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.375840977473715</v>
       </c>
       <c r="E102" t="n">
-        <v>-39.4609366477606</v>
+        <v>-39.53245989818495</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7448369148077298</v>
+        <v>-0.772932996706074</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.6248328669604687</v>
+        <v>-0.6504675959245684</v>
       </c>
     </row>
   </sheetData>
